--- a/emergencias.xlsx
+++ b/emergencias.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\coemidis\dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whuatay\Documents\TDOCUMENTOS\2025\COE MIDIS\Aplicativo_web\5. COE_TABLERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886ECBB5-C74B-4487-B6FD-222374D6DA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6C1B37-7B5E-4FF8-8A89-D889E6F92627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{667D1C55-0D6B-4D70-A184-48C560525A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28099A-D6C3-4ED4-BCC3-26D8F023DB96}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -782,7 +782,7 @@
         <v>36</v>
       </c>
       <c r="E5" s="5">
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
